--- a/_dev/Проект(описание полей).xlsx
+++ b/_dev/Проект(описание полей).xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Open_server_dist\OSPanel\domains\moloko.gg\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Open_server_dist\OSPanel\domains\moloko.gg\_dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A3244DD-55ED-4E3E-B004-42130872F5FC}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{227290DC-0FAA-4825-B9CC-C6AA96670EDE}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21810" windowHeight="9735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Приход" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="28">
   <si>
     <t>Реквизиты</t>
   </si>
@@ -103,6 +103,9 @@
   </si>
   <si>
     <t>это +1 от предыдущего (значение по умолчанию)</t>
+  </si>
+  <si>
+    <t>Авто вычисление</t>
   </si>
 </sst>
 </file>
@@ -482,7 +485,7 @@
   <dimension ref="B2:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -582,7 +585,7 @@
         <v>5</v>
       </c>
       <c r="F12" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
